--- a/Documents/Scenes_ExcelSheet.xlsx
+++ b/Documents/Scenes_ExcelSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E528AFE-8D0B-451B-BE6F-B2CE2736CD30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78C58E4-24FE-4F07-960F-C46A28C3BE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Frame Number</t>
   </si>
@@ -88,6 +88,108 @@
   </si>
   <si>
     <t>Intra Class Label</t>
+  </si>
+  <si>
+    <t>Case study: Lane Detection for Autonomous Vehicles using Computer Vision Algorithm</t>
+  </si>
+  <si>
+    <t>Scene Classification</t>
+  </si>
+  <si>
+    <t>Road Based on Location</t>
+  </si>
+  <si>
+    <t>Bituminous /Concrete Road</t>
+  </si>
+  <si>
+    <t>Wet /Muddy Road</t>
+  </si>
+  <si>
+    <t>Remote Area Roads /State Highway /National Highway</t>
+  </si>
+  <si>
+    <t>City /District Roads</t>
+  </si>
+  <si>
+    <t>Village /Rural Roads</t>
+  </si>
+  <si>
+    <t>Road Based on Traffic Volume</t>
+  </si>
+  <si>
+    <t>Light Traffic Roads</t>
+  </si>
+  <si>
+    <t>Medium Traffic Roads</t>
+  </si>
+  <si>
+    <t>High Traffic Roads</t>
+  </si>
+  <si>
+    <t>&lt;400 vehicles per day</t>
+  </si>
+  <si>
+    <t>400 - 1000 vehicles per day</t>
+  </si>
+  <si>
+    <t>&gt;1000 vehicles per day</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Lots of greenery could be seen consecutively</t>
+  </si>
+  <si>
+    <t>Lots of buildings could be seen consecutively</t>
+  </si>
+  <si>
+    <t>Greenery and buildings could be seen consecutively</t>
+  </si>
+  <si>
+    <t>Mostly Black / grey in color</t>
+  </si>
+  <si>
+    <t>Mostly High contrast black / Orange in color</t>
+  </si>
+  <si>
+    <t>Road Based on Geometry</t>
+  </si>
+  <si>
+    <t>Straight Road</t>
+  </si>
+  <si>
+    <t>Curvy Road</t>
+  </si>
+  <si>
+    <t>Lines on both sides would be straight</t>
+  </si>
+  <si>
+    <t>Lines on both sides would be curvy</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Road based on Material</t>
+  </si>
+  <si>
+    <t>Visible Lane Marking</t>
+  </si>
+  <si>
+    <t>Unvisible Lane Marking</t>
+  </si>
+  <si>
+    <t>White/Yellow line could be identified on the road</t>
+  </si>
+  <si>
+    <t>White/Yellow line could not be identified on the road</t>
+  </si>
+  <si>
+    <t>Road Based on Lane Marking Visibility</t>
   </si>
 </sst>
 </file>
@@ -119,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -168,11 +270,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -182,15 +412,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D735AB2F-45E7-48F6-AF4F-8EFA3210DCB8}">
-  <dimension ref="A2:O9"/>
+  <dimension ref="A2:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,97 +793,119 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" customWidth="1"/>
+    <col min="18" max="18" width="50.140625" customWidth="1"/>
+    <col min="19" max="19" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="B2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="B3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -627,7 +924,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -644,8 +941,9 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -663,7 +961,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -679,10 +977,184 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="20" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q22" s="27"/>
+      <c r="R22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q23" s="26"/>
+      <c r="R23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q24" s="22"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q25" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q26" s="26"/>
+      <c r="R26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q27" s="19"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q30" s="26"/>
+      <c r="R30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q31" s="19"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q32" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q33" s="26"/>
+      <c r="R33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q34" s="16"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="17"/>
+    </row>
+    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q35" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="R35" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q36" s="26"/>
+      <c r="R36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:L3"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q21:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Scenes_ExcelSheet.xlsx
+++ b/Documents/Scenes_ExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78C58E4-24FE-4F07-960F-C46A28C3BE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D0F1B-21B4-4489-A815-CC5A273E419E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Frame Number</t>
   </si>
@@ -190,6 +190,33 @@
   </si>
   <si>
     <t>Road Based on Lane Marking Visibility</t>
+  </si>
+  <si>
+    <t>Object Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face Detection </t>
+  </si>
+  <si>
+    <t>FD Algorithm</t>
+  </si>
+  <si>
+    <t>FD Dataset Name</t>
+  </si>
+  <si>
+    <t>Optical flow algorithm</t>
+  </si>
+  <si>
+    <t>Action Recognition</t>
+  </si>
+  <si>
+    <t>Action Dataset</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Deep Learning Arch. Name</t>
   </si>
 </sst>
 </file>
@@ -402,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -418,12 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -453,6 +474,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,6 +493,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -782,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D735AB2F-45E7-48F6-AF4F-8EFA3210DCB8}">
-  <dimension ref="A2:S36"/>
+  <dimension ref="A2:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,9 +827,17 @@
     <col min="17" max="17" width="35.140625" customWidth="1"/>
     <col min="18" max="18" width="50.140625" customWidth="1"/>
     <col min="19" max="19" width="54.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" customWidth="1"/>
+    <col min="28" max="28" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
@@ -817,7 +855,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="28" t="s">
         <v>22</v>
@@ -836,28 +874,49 @@
       <c r="N3" s="31"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="11"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -901,8 +960,23 @@
       <c r="O5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -921,7 +995,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -940,7 +1014,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -959,7 +1033,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -977,7 +1051,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1007,154 +1081,155 @@
       </c>
     </row>
     <row r="21" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q22" s="27"/>
-      <c r="R22" s="14" t="s">
+      <c r="Q22" s="25"/>
+      <c r="R22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q23" s="26"/>
-      <c r="R23" s="14" t="s">
+      <c r="Q23" s="24"/>
+      <c r="R23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q24" s="22"/>
-      <c r="R24" s="24"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="R25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q26" s="26"/>
-      <c r="R26" s="14" t="s">
+      <c r="Q26" s="24"/>
+      <c r="R26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q27" s="19"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="11"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="R28" s="14" t="s">
+      <c r="R28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="S28" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q29" s="27"/>
-      <c r="R29" s="14" t="s">
+      <c r="Q29" s="25"/>
+      <c r="R29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S29" s="11" t="s">
+      <c r="S29" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q30" s="26"/>
-      <c r="R30" s="14" t="s">
+      <c r="Q30" s="24"/>
+      <c r="R30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q31" s="19"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="11"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="S32" s="17" t="s">
+      <c r="S32" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q33" s="26"/>
-      <c r="R33" s="15" t="s">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="16"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="17"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="15"/>
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="18" t="s">
+      <c r="R35" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="S35" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q36" s="26"/>
-      <c r="R36" s="15" t="s">
+      <c r="Q36" s="24"/>
+      <c r="R36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S36" s="13" t="s">
+      <c r="S36" s="11" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="Q35:Q36"/>
     <mergeCell ref="Q28:Q30"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:L4"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q21:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Scenes_ExcelSheet.xlsx
+++ b/Documents/Scenes_ExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D0F1B-21B4-4489-A815-CC5A273E419E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119FD8C0-4126-4E13-8FD0-FF594FB33EBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Frame Number</t>
   </si>
@@ -81,15 +81,9 @@
     <t>Object</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Scene</t>
   </si>
   <si>
-    <t>Intra Class Label</t>
-  </si>
-  <si>
     <t>Case study: Lane Detection for Autonomous Vehicles using Computer Vision Algorithm</t>
   </si>
   <si>
@@ -217,6 +211,24 @@
   </si>
   <si>
     <t>Deep Learning Arch. Name</t>
+  </si>
+  <si>
+    <t>Inter Class</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>No Lane</t>
+  </si>
+  <si>
+    <t>Intra Class</t>
+  </si>
+  <si>
+    <t>Curved Lane</t>
+  </si>
+  <si>
+    <t>Straight  Lane</t>
   </si>
 </sst>
 </file>
@@ -248,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -399,15 +411,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -429,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -458,13 +461,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,30 +491,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D735AB2F-45E7-48F6-AF4F-8EFA3210DCB8}">
-  <dimension ref="A2:AB36"/>
+  <dimension ref="A2:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,100 +835,113 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="17" max="17" width="35.140625" customWidth="1"/>
-    <col min="18" max="18" width="50.140625" customWidth="1"/>
-    <col min="19" max="19" width="54.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" customWidth="1"/>
-    <col min="27" max="27" width="24.5703125" customWidth="1"/>
-    <col min="28" max="28" width="31" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="19" max="19" width="35.140625" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" customWidth="1"/>
+    <col min="21" max="21" width="54.5703125" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" customWidth="1"/>
+    <col min="29" max="29" width="24.5703125" customWidth="1"/>
+    <col min="30" max="30" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="11"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="11"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AB4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -951,32 +976,38 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -992,10 +1023,12 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -1011,10 +1044,12 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -1030,10 +1065,12 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1048,10 +1085,12 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1066,170 +1105,174 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="20" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q20" s="6" t="s">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="20" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S22" s="29"/>
+      <c r="T22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S23" s="28"/>
+      <c r="T23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S24" s="19"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="T25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S26" s="28"/>
+      <c r="T26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S27" s="17"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S29" s="29"/>
+      <c r="T29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S30" s="28"/>
+      <c r="T30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S31" s="17"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S32" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S33" s="28"/>
+      <c r="T33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S34" s="14"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="15"/>
+    </row>
+    <row r="35" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S35" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q21" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q22" s="25"/>
-      <c r="R22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q23" s="24"/>
-      <c r="R23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q24" s="20"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q25" s="23" t="s">
+      <c r="U35" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S36" s="28"/>
+      <c r="T36" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q26" s="24"/>
-      <c r="R26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q27" s="17"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="9"/>
-    </row>
-    <row r="28" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q28" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q29" s="25"/>
-      <c r="R29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q30" s="24"/>
-      <c r="R30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q31" s="17"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="9"/>
-    </row>
-    <row r="32" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q32" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S32" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q33" s="24"/>
-      <c r="R33" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="14"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="15"/>
-    </row>
-    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q35" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q36" s="24"/>
-      <c r="R36" s="13" t="s">
+      <c r="U36" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="S36" s="11" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="Q32:Q33"/>
+  <mergeCells count="12">
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S28:S30"/>
+    <mergeCell ref="S32:S33"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Scenes_ExcelSheet.xlsx
+++ b/Documents/Scenes_ExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119FD8C0-4126-4E13-8FD0-FF594FB33EBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D8601-2AFD-44AF-A5BD-7A73FC601273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Frame Number</t>
   </si>
@@ -229,6 +234,21 @@
   </si>
   <si>
     <t>Straight  Lane</t>
+  </si>
+  <si>
+    <t>Pedestrian crossing</t>
+  </si>
+  <si>
+    <t>Vehicle overtaking</t>
+  </si>
+  <si>
+    <t>Signal turning green</t>
+  </si>
+  <si>
+    <t>Vehicle passing by</t>
+  </si>
+  <si>
+    <t>People standing next to road</t>
   </si>
 </sst>
 </file>
@@ -467,6 +487,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,34 +527,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D735AB2F-45E7-48F6-AF4F-8EFA3210DCB8}">
   <dimension ref="A2:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="61" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,85 +859,86 @@
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="20.85546875" customWidth="1"/>
-    <col min="19" max="19" width="35.140625" customWidth="1"/>
+    <col min="17" max="17" width="30.140625" customWidth="1"/>
+    <col min="19" max="19" width="54" customWidth="1"/>
     <col min="20" max="20" width="50.140625" customWidth="1"/>
     <col min="21" max="21" width="54.5703125" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" customWidth="1"/>
     <col min="24" max="24" width="21.140625" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
     <col min="26" max="26" width="23.140625" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" customWidth="1"/>
+    <col min="27" max="27" width="30.7109375" customWidth="1"/>
     <col min="28" max="28" width="18.85546875" customWidth="1"/>
     <col min="29" max="29" width="24.5703125" customWidth="1"/>
     <col min="30" max="30" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="35" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35" t="s">
+      <c r="N4" s="30"/>
+      <c r="O4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="34"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="11"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
@@ -935,11 +956,11 @@
       <c r="AA4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -976,13 +997,13 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="P5" s="5" t="s">
@@ -1012,103 +1033,303 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="C6" s="2">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:L6" ca="1" si="0">RANDBETWEEN(1,20)</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:L10" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L9" s="2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S20" s="6" t="s">
@@ -1122,7 +1343,7 @@
       </c>
     </row>
     <row r="21" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S21" s="27" t="s">
+      <c r="S21" s="24" t="s">
         <v>21</v>
       </c>
       <c r="T21" s="16" t="s">
@@ -1133,7 +1354,7 @@
       </c>
     </row>
     <row r="22" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S22" s="29"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1363,7 @@
       </c>
     </row>
     <row r="23" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S23" s="28"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="12" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1377,7 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S25" s="27" t="s">
+      <c r="S25" s="24" t="s">
         <v>47</v>
       </c>
       <c r="T25" s="18" t="s">
@@ -1167,7 +1388,7 @@
       </c>
     </row>
     <row r="26" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S26" s="28"/>
+      <c r="S26" s="25"/>
       <c r="T26" s="12" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1402,7 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S28" s="27" t="s">
+      <c r="S28" s="24" t="s">
         <v>27</v>
       </c>
       <c r="T28" s="12" t="s">
@@ -1192,7 +1413,7 @@
       </c>
     </row>
     <row r="29" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S29" s="29"/>
+      <c r="S29" s="26"/>
       <c r="T29" s="12" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1422,7 @@
       </c>
     </row>
     <row r="30" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S30" s="28"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="12" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1436,7 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S32" s="27" t="s">
+      <c r="S32" s="24" t="s">
         <v>40</v>
       </c>
       <c r="T32" s="12" t="s">
@@ -1226,7 +1447,7 @@
       </c>
     </row>
     <row r="33" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S33" s="28"/>
+      <c r="S33" s="25"/>
       <c r="T33" s="13" t="s">
         <v>42</v>
       </c>
@@ -1240,7 +1461,7 @@
       <c r="U34" s="15"/>
     </row>
     <row r="35" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S35" s="27" t="s">
+      <c r="S35" s="24" t="s">
         <v>52</v>
       </c>
       <c r="T35" s="16" t="s">
@@ -1251,7 +1472,7 @@
       </c>
     </row>
     <row r="36" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S36" s="28"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="13" t="s">
         <v>49</v>
       </c>
@@ -1261,6 +1482,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="S28:S30"/>
     <mergeCell ref="S32:S33"/>
@@ -1268,11 +1494,6 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Scenes_ExcelSheet.xlsx
+++ b/Documents/Scenes_ExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiss\Amrita\SecondSem\ComputerVision\CaseStudy\LaneDetection\lane_detection\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D8601-2AFD-44AF-A5BD-7A73FC601273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC510BFD-85F3-4E0A-B950-4E9EAC3C37A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{92E58B98-A324-43E6-A747-6F6A67D8FE0B}"/>
   </bookViews>
@@ -491,6 +491,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,6 +515,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -510,24 +528,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,13 +846,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D735AB2F-45E7-48F6-AF4F-8EFA3210DCB8}">
   <dimension ref="A2:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="61" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
@@ -874,71 +875,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="33"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="29" t="s">
+      <c r="N4" s="36"/>
+      <c r="O4" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="30"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="11"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
@@ -956,11 +957,11 @@
       <c r="AA4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1035,39 +1036,39 @@
       </c>
       <c r="C6" s="2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:L6" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>16</v>
+        <f t="shared" ref="D6:K6" ca="1" si="0">RANDBETWEEN(1,20)</f>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -1095,44 +1096,44 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:L10" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <f t="shared" ref="C7:K10" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L7" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
@@ -1157,39 +1158,39 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="J8" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
       <c r="K8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -1217,43 +1218,43 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -1277,39 +1278,39 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="K10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -1343,7 +1344,7 @@
       </c>
     </row>
     <row r="21" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="29" t="s">
         <v>21</v>
       </c>
       <c r="T21" s="16" t="s">
@@ -1354,7 +1355,7 @@
       </c>
     </row>
     <row r="22" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S22" s="26"/>
+      <c r="S22" s="31"/>
       <c r="T22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1363,7 +1364,7 @@
       </c>
     </row>
     <row r="23" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S23" s="25"/>
+      <c r="S23" s="30"/>
       <c r="T23" s="12" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1378,7 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S25" s="24" t="s">
+      <c r="S25" s="29" t="s">
         <v>47</v>
       </c>
       <c r="T25" s="18" t="s">
@@ -1388,7 +1389,7 @@
       </c>
     </row>
     <row r="26" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S26" s="25"/>
+      <c r="S26" s="30"/>
       <c r="T26" s="12" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1403,7 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S28" s="24" t="s">
+      <c r="S28" s="29" t="s">
         <v>27</v>
       </c>
       <c r="T28" s="12" t="s">
@@ -1413,7 +1414,7 @@
       </c>
     </row>
     <row r="29" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S29" s="26"/>
+      <c r="S29" s="31"/>
       <c r="T29" s="12" t="s">
         <v>29</v>
       </c>
@@ -1422,7 +1423,7 @@
       </c>
     </row>
     <row r="30" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S30" s="25"/>
+      <c r="S30" s="30"/>
       <c r="T30" s="12" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1437,7 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S32" s="24" t="s">
+      <c r="S32" s="29" t="s">
         <v>40</v>
       </c>
       <c r="T32" s="12" t="s">
@@ -1447,7 +1448,7 @@
       </c>
     </row>
     <row r="33" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S33" s="25"/>
+      <c r="S33" s="30"/>
       <c r="T33" s="13" t="s">
         <v>42</v>
       </c>
@@ -1461,7 +1462,7 @@
       <c r="U34" s="15"/>
     </row>
     <row r="35" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S35" s="24" t="s">
+      <c r="S35" s="29" t="s">
         <v>52</v>
       </c>
       <c r="T35" s="16" t="s">
@@ -1472,7 +1473,7 @@
       </c>
     </row>
     <row r="36" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S36" s="25"/>
+      <c r="S36" s="30"/>
       <c r="T36" s="13" t="s">
         <v>49</v>
       </c>
@@ -1482,11 +1483,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="S28:S30"/>
     <mergeCell ref="S32:S33"/>
@@ -1494,6 +1490,11 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
